--- a/K3RLJ조 프로젝트 일정표.xlsx
+++ b/K3RLJ조 프로젝트 일정표.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungy\짬통\클라우드 강의\30. 프로젝트\30. 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungy\짬통\클라우드 강의\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="20265" windowHeight="9232"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11722"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Project Timeline" sheetId="1" r:id="rId4"/>
@@ -21,31 +21,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <x:si>
-    <x:t>DNS 접속 및 로드밸런스 테스트</x:t>
+    <x:t>류영진 외 전 인원</x:t>
   </x:si>
   <x:si>
-    <x:t>김민석, 김정욱, 이상혁</x:t>
+    <x:t>2023.12.21</x:t>
   </x:si>
   <x:si>
-    <x:t>Router, L3 Switch 통신 프로토콜 설정(OSPF)</x:t>
+    <x:t>프로젝트 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 산출물관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개별 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조별 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가용 장비 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>류영진, 정은호</x:t>
   </x:si>
   <x:si>
     <x:t>류영진</x:t>
   </x:si>
   <x:si>
-    <x:t>프로젝트 발표 자료 작성 및 발표 준비</x:t>
+    <x:t>구성연</x:t>
   </x:si>
   <x:si>
-    <x:t>VMWare 하드웨어 구축 및 OS 설치</x:t>
+    <x:t>`</x:t>
   </x:si>
   <x:si>
-    <x:t>구성연, 김민석, 김정욱, 이상혁</x:t>
+    <x:t>이상혁</x:t>
   </x:si>
   <x:si>
-    <x:t>구성연, 류영진, 정은호</x:t>
+    <x:t>김정욱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김민석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정은호</x:t>
   </x:si>
   <x:si>
     <x:t>전 인원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 DAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 DAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 DAY</x:t>
   </x:si>
   <x:si>
     <x:t>7 DAY</x:t>
@@ -54,52 +84,148 @@
     <x:t>DATE</x:t>
   </x:si>
   <x:si>
-    <x:t>9 DAY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 DAY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 DAY</x:t>
+    <x:t>프로젝트 분석</x:t>
   </x:si>
   <x:si>
     <x:t>1 DAY</x:t>
   </x:si>
   <x:si>
-    <x:t>프로젝트 분석</x:t>
+    <x:t>4 DAY</x:t>
   </x:si>
   <x:si>
-    <x:t>4 DAY</x:t>
+    <x:t>프로젝트구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 DAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 DAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 DAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DETAILS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>K3RLJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 DAY</x:t>
   </x:si>
   <x:si>
     <x:t>PHASE</x:t>
   </x:si>
   <x:si>
-    <x:t>8 DAY</x:t>
+    <x:t>프로젝트 설계</x:t>
   </x:si>
   <x:si>
-    <x:t>K3RLJ</x:t>
+    <x:t>일일 회의</x:t>
   </x:si>
   <x:si>
-    <x:t>TIME</x:t>
+    <x:t>프로젝트 발표</x:t>
   </x:si>
   <x:si>
-    <x:t>6 DAY</x:t>
+    <x:t>NTP 서버 시간 확인 테스트</x:t>
   </x:si>
   <x:si>
-    <x:t>DETAILS</x:t>
+    <x:t>L3 Switch 게이트웨이 이중화</x:t>
   </x:si>
   <x:si>
-    <x:t>2 DAY</x:t>
+    <x:t>DNS 접속 및 로드밸런스 테스트</x:t>
   </x:si>
   <x:si>
-    <x:t>프로젝트구축</x:t>
+    <x:t>구성연, 김민석, 김정욱, 이상혁</x:t>
   </x:si>
   <x:si>
-    <x:t>5 DAY</x:t>
+    <x:t>프로젝트 계획서 및 일정표 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>류영진, 정은호</x:t>
+    <x:t xml:space="preserve"> ZBF 라우터 방화벽 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 완료 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김민석, 김정욱, 이상혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구성연, 류영진, 정은호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROJECT TITLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROJECT MANAGER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 장비 AAA 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>온프레미스 인프라 구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이상혁, 류영진, 정은호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 분석 &amp; 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMPANY NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROJECT TIMELINE TEMPLATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Router NAT 설정 및 포트포워드 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VMWare 하드웨어 구축 및 OS 설치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 발표 자료 작성 및 발표 준비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 장비-NMS 서버 연동 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 장비 유저 생성 SSH 접속 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Internal Server Farm - 방화벽 Forward Allow 설정, Web 서버 1, 2 구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 장비 - NMS 서버, Radius 서버 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허용/비허용 조건으로 접속을 시도하여 방화벽 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 장비 IP 설정 및 L3 스위치 라우팅 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Internal Server Farm - 방화벽 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>External Server Farm - NGINX 서버 구축 및 로드밸런스 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Integrated Control Area - Radius 서버 구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>External Server Farm - DNS 서버 구축 및 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>External Server Farm - NTP 서버 구축 및 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Router, L3 Switch 통신 프로토콜 설정(OSPF)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네트워크 장비 및 서버 물리적 연결, 서버 장비 OS 설치</x:t>
   </x:si>
   <x:si>
     <x:t>L2 Switch VLAN 추가 및 설정, MAC 제한 설정</x:t>
@@ -108,136 +234,10 @@
     <x:t>네트워크 장비 Radius 서버를 사용하여 SSH 접속 테스트</x:t>
   </x:si>
   <x:si>
-    <x:t>네트워크 장비-NMS 서버 연동 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 완료 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROJECT TIMELINE TEMPLATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ZBF 라우터 방화벽 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>External Server Farm - DNS 서버 구축 및 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Integrated Control Area - Radius 서버 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상혁, 류영진, 정은호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>External Server Farm - NTP 서버 구축 및 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 장비 유저 생성 SSH 접속 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Router NAT 설정 및 포트포워드 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L3 Switch 게이트웨이 이중화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구성연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 장비 AAA 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 발표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일일 회의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROJECT MANAGER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COMPANY NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>온프레미스 인프라 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROJECT TITLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 분석 &amp; 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internal Server Farm - 방화벽 Forward Allow 설정, Web 서버 1, 2 구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 산출물관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가용 장비 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.12.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허용/비허용 조건으로 접속을 시도하여 방화벽 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>류영진 외 전 인원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 장비 및 서버 물리적 연결, 서버 장비 OS 설치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 장비 - NMS 서버, Radius 서버 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internal Server Farm - 방화벽 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개별 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조별 보고서 작성</x:t>
-  </x:si>
-  <x:si>
     <x:t>Integrated Control Area - NMS 서버 구축</x:t>
   </x:si>
   <x:si>
     <x:t>Office Network - DHCP 서버 구축 및 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NTP 서버 시간 확인 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>External Server Farm - NGINX 서버 구축 및 로드밸런스 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정은호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김정욱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김민석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네트워크 장비 IP 설정 및 L3 스위치 라우팅 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 계획서 및 일정표 작성</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -288,70 +288,23 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="26"/>
-          <x:color rgb="ff0b5394"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="26"/>
-          <x:color rgb="ff0b5394"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff434343"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff434343"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff434343"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff434343"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="26"/>
+      <x:color rgb="ff0b5394"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff434343"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff434343"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -710,20 +663,52 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="14"/>
-      <x:color rgb="ff38761d"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="14"/>
-      <x:color rgb="ff0b5394"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff38761d"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff38761d"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff0b5394"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff0b5394"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="14">
+  <x:fills count="15">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -762,6 +747,24 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffa0b4e6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff69d8ad"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffb689"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="ff38761d"/>
         <x:bgColor rgb="ff38761d"/>
       </x:patternFill>
@@ -786,19 +789,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffa0b4e6"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ff69d8ad"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffb689"/>
+        <x:fgColor rgb="ffffffff"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -1323,20 +1314,6 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff999999"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
       <x:left style="hair">
         <x:color rgb="ffcccccc"/>
       </x:left>
@@ -1406,13 +1383,27 @@
         <x:color rgb="ffb85b22"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff999999"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="148">
+  <x:cellXfs count="149">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1914,15 +1905,93 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="9" fontId="18" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="21" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="21" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="21" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="21" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="21" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="21" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="18" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="21" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="21" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="18" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="18" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="18" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="22" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="18" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="18" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="23" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="23" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1976,50 +2045,50 @@
     <x:xf numFmtId="0" fontId="27" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2032,26 +2101,26 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="19" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="19" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2059,82 +2128,7 @@
     <x:xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="9" fontId="18" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="21" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="21" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="21" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="21" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="21" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="21" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="18" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="21" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="21" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="18" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="18" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="22" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="18" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="18" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="164" fontId="22" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -2839,8 +2833,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:EA48"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H53" activeCellId="0" sqref="H53:H53"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="W30" activeCellId="0" sqref="W30:W30"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -2860,7 +2854,7 @@
     <x:row r="1" spans="1:66" ht="36" customHeight="1">
       <x:c r="A1" s="6"/>
       <x:c r="B1" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -2868,29 +2862,29 @@
       <x:c r="F1" s="8"/>
       <x:c r="G1" s="9"/>
       <x:c r="H1" s="9"/>
-      <x:c r="I1" s="99"/>
-      <x:c r="J1" s="100"/>
-      <x:c r="K1" s="100"/>
-      <x:c r="L1" s="100"/>
-      <x:c r="M1" s="100"/>
-      <x:c r="N1" s="100"/>
-      <x:c r="O1" s="101"/>
-      <x:c r="P1" s="100"/>
-      <x:c r="Q1" s="100"/>
-      <x:c r="R1" s="100"/>
-      <x:c r="S1" s="100"/>
-      <x:c r="T1" s="100"/>
-      <x:c r="U1" s="100"/>
-      <x:c r="V1" s="100"/>
-      <x:c r="W1" s="100"/>
-      <x:c r="X1" s="100"/>
-      <x:c r="Y1" s="100"/>
-      <x:c r="Z1" s="100"/>
-      <x:c r="AA1" s="100"/>
-      <x:c r="AB1" s="100"/>
-      <x:c r="AC1" s="100"/>
-      <x:c r="AD1" s="100"/>
-      <x:c r="AE1" s="100"/>
+      <x:c r="I1" s="125"/>
+      <x:c r="J1" s="126"/>
+      <x:c r="K1" s="126"/>
+      <x:c r="L1" s="126"/>
+      <x:c r="M1" s="126"/>
+      <x:c r="N1" s="126"/>
+      <x:c r="O1" s="127"/>
+      <x:c r="P1" s="126"/>
+      <x:c r="Q1" s="126"/>
+      <x:c r="R1" s="126"/>
+      <x:c r="S1" s="126"/>
+      <x:c r="T1" s="126"/>
+      <x:c r="U1" s="126"/>
+      <x:c r="V1" s="126"/>
+      <x:c r="W1" s="126"/>
+      <x:c r="X1" s="126"/>
+      <x:c r="Y1" s="126"/>
+      <x:c r="Z1" s="126"/>
+      <x:c r="AA1" s="126"/>
+      <x:c r="AB1" s="126"/>
+      <x:c r="AC1" s="126"/>
+      <x:c r="AD1" s="126"/>
+      <x:c r="AE1" s="126"/>
       <x:c r="AF1" s="10"/>
       <x:c r="AG1" s="10"/>
       <x:c r="AH1" s="10"/>
@@ -2976,11 +2970,11 @@
       <x:c r="AT2" s="92"/>
       <x:c r="AU2" s="92"/>
       <x:c r="AV2" s="65"/>
-      <x:c r="AW2" s="121"/>
-      <x:c r="AX2" s="121"/>
-      <x:c r="AY2" s="121"/>
-      <x:c r="AZ2" s="121"/>
-      <x:c r="BA2" s="121"/>
+      <x:c r="AW2" s="147"/>
+      <x:c r="AX2" s="147"/>
+      <x:c r="AY2" s="147"/>
+      <x:c r="AZ2" s="147"/>
+      <x:c r="BA2" s="147"/>
       <x:c r="BB2" s="6"/>
       <x:c r="BC2" s="6"/>
       <x:c r="BD2" s="6"/>
@@ -2998,7 +2992,7 @@
     <x:row r="3" spans="1:66" ht="21" customHeight="1">
       <x:c r="A3" s="6"/>
       <x:c r="B3" s="16" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C3" s="16"/>
       <x:c r="D3" s="17"/>
@@ -3008,29 +3002,29 @@
       <x:c r="F3" s="17"/>
       <x:c r="G3" s="19"/>
       <x:c r="H3" s="20"/>
-      <x:c r="I3" s="105" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="J3" s="103"/>
-      <x:c r="K3" s="103"/>
-      <x:c r="L3" s="103"/>
-      <x:c r="M3" s="103"/>
-      <x:c r="N3" s="103"/>
-      <x:c r="O3" s="103"/>
-      <x:c r="P3" s="102" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="Q3" s="103"/>
-      <x:c r="R3" s="103"/>
-      <x:c r="S3" s="103"/>
-      <x:c r="T3" s="103"/>
-      <x:c r="U3" s="103"/>
-      <x:c r="V3" s="103"/>
-      <x:c r="W3" s="103"/>
-      <x:c r="X3" s="103"/>
-      <x:c r="Y3" s="103"/>
-      <x:c r="Z3" s="103"/>
-      <x:c r="AA3" s="103"/>
+      <x:c r="I3" s="131" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J3" s="129"/>
+      <x:c r="K3" s="129"/>
+      <x:c r="L3" s="129"/>
+      <x:c r="M3" s="129"/>
+      <x:c r="N3" s="129"/>
+      <x:c r="O3" s="129"/>
+      <x:c r="P3" s="128" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q3" s="129"/>
+      <x:c r="R3" s="129"/>
+      <x:c r="S3" s="129"/>
+      <x:c r="T3" s="129"/>
+      <x:c r="U3" s="129"/>
+      <x:c r="V3" s="129"/>
+      <x:c r="W3" s="129"/>
+      <x:c r="X3" s="129"/>
+      <x:c r="Y3" s="129"/>
+      <x:c r="Z3" s="129"/>
+      <x:c r="AA3" s="129"/>
       <x:c r="AC3" s="15"/>
       <x:c r="AD3" s="15"/>
       <x:c r="AE3" s="15"/>
@@ -3051,11 +3045,11 @@
       <x:c r="AT3" s="92"/>
       <x:c r="AU3" s="92"/>
       <x:c r="AV3" s="65"/>
-      <x:c r="AW3" s="121"/>
-      <x:c r="AX3" s="121"/>
-      <x:c r="AY3" s="121"/>
-      <x:c r="AZ3" s="121"/>
-      <x:c r="BA3" s="121"/>
+      <x:c r="AW3" s="147"/>
+      <x:c r="AX3" s="147"/>
+      <x:c r="AY3" s="147"/>
+      <x:c r="AZ3" s="147"/>
+      <x:c r="BA3" s="147"/>
       <x:c r="BB3" s="6"/>
       <x:c r="BC3" s="6"/>
       <x:c r="BD3" s="6"/>
@@ -3078,33 +3072,33 @@
       <x:c r="C4" s="16"/>
       <x:c r="D4" s="21"/>
       <x:c r="E4" s="91" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="21"/>
       <x:c r="G4" s="22"/>
       <x:c r="H4" s="23"/>
-      <x:c r="I4" s="105" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J4" s="103"/>
-      <x:c r="K4" s="103"/>
-      <x:c r="L4" s="103"/>
-      <x:c r="M4" s="103"/>
-      <x:c r="N4" s="103"/>
-      <x:c r="O4" s="103"/>
-      <x:c r="P4" s="104" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="Q4" s="103"/>
-      <x:c r="R4" s="103"/>
-      <x:c r="S4" s="103"/>
-      <x:c r="T4" s="103"/>
-      <x:c r="U4" s="103"/>
-      <x:c r="V4" s="103"/>
-      <x:c r="W4" s="103"/>
-      <x:c r="X4" s="103"/>
-      <x:c r="Y4" s="103"/>
-      <x:c r="Z4" s="103"/>
+      <x:c r="I4" s="131" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J4" s="129"/>
+      <x:c r="K4" s="129"/>
+      <x:c r="L4" s="129"/>
+      <x:c r="M4" s="129"/>
+      <x:c r="N4" s="129"/>
+      <x:c r="O4" s="129"/>
+      <x:c r="P4" s="130" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q4" s="129"/>
+      <x:c r="R4" s="129"/>
+      <x:c r="S4" s="129"/>
+      <x:c r="T4" s="129"/>
+      <x:c r="U4" s="129"/>
+      <x:c r="V4" s="129"/>
+      <x:c r="W4" s="129"/>
+      <x:c r="X4" s="129"/>
+      <x:c r="Y4" s="129"/>
+      <x:c r="Z4" s="129"/>
       <x:c r="AA4" s="24"/>
       <x:c r="AC4" s="6"/>
       <x:c r="AD4" s="6"/>
@@ -3115,17 +3109,17 @@
       <x:c r="AI4" s="6"/>
       <x:c r="AJ4" s="6"/>
       <x:c r="AP4" s="64"/>
-      <x:c r="AQ4" s="121"/>
-      <x:c r="AR4" s="121"/>
-      <x:c r="AS4" s="121"/>
-      <x:c r="AT4" s="121"/>
-      <x:c r="AU4" s="121"/>
+      <x:c r="AQ4" s="147"/>
+      <x:c r="AR4" s="147"/>
+      <x:c r="AS4" s="147"/>
+      <x:c r="AT4" s="147"/>
+      <x:c r="AU4" s="147"/>
       <x:c r="AV4" s="65"/>
-      <x:c r="AW4" s="121"/>
-      <x:c r="AX4" s="121"/>
-      <x:c r="AY4" s="121"/>
-      <x:c r="AZ4" s="121"/>
-      <x:c r="BA4" s="121"/>
+      <x:c r="AW4" s="147"/>
+      <x:c r="AX4" s="147"/>
+      <x:c r="AY4" s="147"/>
+      <x:c r="AZ4" s="147"/>
+      <x:c r="BA4" s="147"/>
       <x:c r="BB4" s="6"/>
       <x:c r="BC4" s="6"/>
       <x:c r="BD4" s="6"/>
@@ -3279,106 +3273,106 @@
     <x:row r="7" spans="1:78" ht="21" customHeight="1">
       <x:c r="A7" s="6"/>
       <x:c r="B7" s="27" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="27"/>
       <x:c r="D7" s="28"/>
       <x:c r="E7" s="28"/>
       <x:c r="F7" s="28"/>
       <x:c r="G7" s="29" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H7" s="30"/>
+      <x:c r="I7" s="123" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H7" s="30"/>
-      <x:c r="I7" s="97" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J7" s="98"/>
-      <x:c r="K7" s="98"/>
-      <x:c r="L7" s="98"/>
-      <x:c r="M7" s="98"/>
-      <x:c r="N7" s="98"/>
-      <x:c r="O7" s="98"/>
-      <x:c r="P7" s="97" t="s">
+      <x:c r="J7" s="124"/>
+      <x:c r="K7" s="124"/>
+      <x:c r="L7" s="124"/>
+      <x:c r="M7" s="124"/>
+      <x:c r="N7" s="124"/>
+      <x:c r="O7" s="124"/>
+      <x:c r="P7" s="123" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q7" s="124"/>
+      <x:c r="R7" s="124"/>
+      <x:c r="S7" s="124"/>
+      <x:c r="T7" s="124"/>
+      <x:c r="U7" s="124"/>
+      <x:c r="V7" s="124"/>
+      <x:c r="W7" s="123" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="X7" s="124"/>
+      <x:c r="Y7" s="124"/>
+      <x:c r="Z7" s="124"/>
+      <x:c r="AA7" s="124"/>
+      <x:c r="AB7" s="124"/>
+      <x:c r="AC7" s="124"/>
+      <x:c r="AD7" s="123" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="Q7" s="98"/>
-      <x:c r="R7" s="98"/>
-      <x:c r="S7" s="98"/>
-      <x:c r="T7" s="98"/>
-      <x:c r="U7" s="98"/>
-      <x:c r="V7" s="98"/>
-      <x:c r="W7" s="97" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="X7" s="98"/>
-      <x:c r="Y7" s="98"/>
-      <x:c r="Z7" s="98"/>
-      <x:c r="AA7" s="98"/>
-      <x:c r="AB7" s="98"/>
-      <x:c r="AC7" s="98"/>
-      <x:c r="AD7" s="97" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AE7" s="98"/>
-      <x:c r="AF7" s="98"/>
-      <x:c r="AG7" s="98"/>
-      <x:c r="AH7" s="98"/>
-      <x:c r="AI7" s="98"/>
-      <x:c r="AJ7" s="98"/>
-      <x:c r="AK7" s="97" t="s">
+      <x:c r="AE7" s="124"/>
+      <x:c r="AF7" s="124"/>
+      <x:c r="AG7" s="124"/>
+      <x:c r="AH7" s="124"/>
+      <x:c r="AI7" s="124"/>
+      <x:c r="AJ7" s="124"/>
+      <x:c r="AK7" s="123" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="AL7" s="124"/>
+      <x:c r="AM7" s="124"/>
+      <x:c r="AN7" s="124"/>
+      <x:c r="AO7" s="124"/>
+      <x:c r="AP7" s="124"/>
+      <x:c r="AQ7" s="124"/>
+      <x:c r="AR7" s="123" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="AS7" s="124"/>
+      <x:c r="AT7" s="124"/>
+      <x:c r="AU7" s="124"/>
+      <x:c r="AV7" s="124"/>
+      <x:c r="AW7" s="124"/>
+      <x:c r="AX7" s="124"/>
+      <x:c r="AY7" s="123" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="AZ7" s="124"/>
+      <x:c r="BA7" s="124"/>
+      <x:c r="BB7" s="124"/>
+      <x:c r="BC7" s="124"/>
+      <x:c r="BD7" s="124"/>
+      <x:c r="BE7" s="124"/>
+      <x:c r="BF7" s="123" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="AL7" s="98"/>
-      <x:c r="AM7" s="98"/>
-      <x:c r="AN7" s="98"/>
-      <x:c r="AO7" s="98"/>
-      <x:c r="AP7" s="98"/>
-      <x:c r="AQ7" s="98"/>
-      <x:c r="AR7" s="97" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AS7" s="98"/>
-      <x:c r="AT7" s="98"/>
-      <x:c r="AU7" s="98"/>
-      <x:c r="AV7" s="98"/>
-      <x:c r="AW7" s="98"/>
-      <x:c r="AX7" s="98"/>
-      <x:c r="AY7" s="97" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="AZ7" s="98"/>
-      <x:c r="BA7" s="98"/>
-      <x:c r="BB7" s="98"/>
-      <x:c r="BC7" s="98"/>
-      <x:c r="BD7" s="98"/>
-      <x:c r="BE7" s="98"/>
-      <x:c r="BF7" s="97" t="s">
+      <x:c r="BG7" s="124"/>
+      <x:c r="BH7" s="124"/>
+      <x:c r="BI7" s="124"/>
+      <x:c r="BJ7" s="124"/>
+      <x:c r="BK7" s="124"/>
+      <x:c r="BL7" s="124"/>
+      <x:c r="BM7" s="123" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="BN7" s="124"/>
+      <x:c r="BO7" s="124"/>
+      <x:c r="BP7" s="124"/>
+      <x:c r="BQ7" s="124"/>
+      <x:c r="BR7" s="124"/>
+      <x:c r="BS7" s="124"/>
+      <x:c r="BT7" s="123" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="BG7" s="98"/>
-      <x:c r="BH7" s="98"/>
-      <x:c r="BI7" s="98"/>
-      <x:c r="BJ7" s="98"/>
-      <x:c r="BK7" s="98"/>
-      <x:c r="BL7" s="98"/>
-      <x:c r="BM7" s="97" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="BN7" s="98"/>
-      <x:c r="BO7" s="98"/>
-      <x:c r="BP7" s="98"/>
-      <x:c r="BQ7" s="98"/>
-      <x:c r="BR7" s="98"/>
-      <x:c r="BS7" s="98"/>
-      <x:c r="BT7" s="97" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="BU7" s="98"/>
-      <x:c r="BV7" s="98"/>
-      <x:c r="BW7" s="98"/>
-      <x:c r="BX7" s="98"/>
-      <x:c r="BY7" s="98"/>
-      <x:c r="BZ7" s="98"/>
+      <x:c r="BU7" s="124"/>
+      <x:c r="BV7" s="124"/>
+      <x:c r="BW7" s="124"/>
+      <x:c r="BX7" s="124"/>
+      <x:c r="BY7" s="124"/>
+      <x:c r="BZ7" s="124"/>
     </x:row>
     <x:row r="8" spans="1:78" ht="21" customHeight="1">
       <x:c r="A8" s="31"/>
@@ -3389,7 +3383,7 @@
       <x:c r="F8" s="33"/>
       <x:c r="G8" s="34"/>
       <x:c r="H8" s="35" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I8" s="36">
         <x:v>1</x:v>
@@ -3604,28 +3598,28 @@
     </x:row>
     <x:row r="9" spans="1:78" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A9" s="38"/>
-      <x:c r="B9" s="119">
+      <x:c r="B9" s="145">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C9" s="39"/>
-      <x:c r="D9" s="117" t="s">
+      <x:c r="D9" s="143" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="E9" s="117"/>
-      <x:c r="F9" s="117"/>
+      <x:c r="E9" s="143"/>
+      <x:c r="F9" s="143"/>
       <x:c r="G9" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H9" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H9" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="I9" s="71"/>
-      <x:c r="J9" s="125"/>
-      <x:c r="K9" s="125"/>
-      <x:c r="L9" s="125"/>
-      <x:c r="M9" s="125"/>
-      <x:c r="N9" s="125"/>
-      <x:c r="O9" s="126"/>
+      <x:c r="J9" s="100"/>
+      <x:c r="K9" s="100"/>
+      <x:c r="L9" s="100"/>
+      <x:c r="M9" s="100"/>
+      <x:c r="N9" s="100"/>
+      <x:c r="O9" s="101"/>
       <x:c r="P9" s="72"/>
       <x:c r="Q9" s="57"/>
       <x:c r="R9" s="57"/>
@@ -3692,27 +3686,27 @@
     </x:row>
     <x:row r="10" spans="1:78" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A10" s="38"/>
-      <x:c r="B10" s="119"/>
+      <x:c r="B10" s="145"/>
       <x:c r="C10" s="39"/>
-      <x:c r="D10" s="117"/>
-      <x:c r="E10" s="117"/>
-      <x:c r="F10" s="117"/>
+      <x:c r="D10" s="143"/>
+      <x:c r="E10" s="143"/>
+      <x:c r="F10" s="143"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I10" s="71"/>
-      <x:c r="J10" s="125"/>
-      <x:c r="K10" s="125"/>
-      <x:c r="L10" s="125"/>
-      <x:c r="M10" s="125"/>
-      <x:c r="N10" s="125"/>
-      <x:c r="O10" s="126"/>
+      <x:c r="J10" s="100"/>
+      <x:c r="K10" s="100"/>
+      <x:c r="L10" s="100"/>
+      <x:c r="M10" s="100"/>
+      <x:c r="N10" s="100"/>
+      <x:c r="O10" s="101"/>
       <x:c r="P10" s="72"/>
-      <x:c r="Q10" s="127"/>
-      <x:c r="R10" s="128"/>
+      <x:c r="Q10" s="102"/>
+      <x:c r="R10" s="103"/>
       <x:c r="S10" s="57"/>
       <x:c r="T10" s="57"/>
       <x:c r="U10" s="57"/>
@@ -3776,16 +3770,16 @@
     </x:row>
     <x:row r="11" spans="1:78" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A11" s="38"/>
-      <x:c r="B11" s="120"/>
+      <x:c r="B11" s="146"/>
       <x:c r="C11" s="40"/>
-      <x:c r="D11" s="118"/>
-      <x:c r="E11" s="118"/>
-      <x:c r="F11" s="118"/>
+      <x:c r="D11" s="144"/>
+      <x:c r="E11" s="144"/>
+      <x:c r="F11" s="144"/>
       <x:c r="G11" s="54" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H11" s="54" t="s">
-        <x:v>57</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="73"/>
       <x:c r="J11" s="70"/>
@@ -3795,12 +3789,12 @@
       <x:c r="N11" s="70"/>
       <x:c r="O11" s="74"/>
       <x:c r="P11" s="75"/>
-      <x:c r="Q11" s="129"/>
-      <x:c r="R11" s="129"/>
-      <x:c r="S11" s="129"/>
-      <x:c r="T11" s="129"/>
-      <x:c r="U11" s="129"/>
-      <x:c r="V11" s="130"/>
+      <x:c r="Q11" s="104"/>
+      <x:c r="R11" s="104"/>
+      <x:c r="S11" s="104"/>
+      <x:c r="T11" s="104"/>
+      <x:c r="U11" s="104"/>
+      <x:c r="V11" s="105"/>
       <x:c r="W11" s="70"/>
       <x:c r="X11" s="70"/>
       <x:c r="Y11" s="70"/>
@@ -3860,20 +3854,20 @@
     </x:row>
     <x:row r="12" spans="1:78" ht="21" customHeight="1">
       <x:c r="A12" s="6"/>
-      <x:c r="B12" s="115">
+      <x:c r="B12" s="141">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C12" s="41"/>
-      <x:c r="D12" s="106" t="s">
+      <x:c r="D12" s="132" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E12" s="107"/>
-      <x:c r="F12" s="107"/>
+      <x:c r="E12" s="133"/>
+      <x:c r="F12" s="133"/>
       <x:c r="G12" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H12" s="53" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I12" s="76"/>
       <x:c r="J12" s="68"/>
@@ -3885,7 +3879,7 @@
       <x:c r="P12" s="78"/>
       <x:c r="Q12" s="68"/>
       <x:c r="R12" s="68"/>
-      <x:c r="S12" s="134"/>
+      <x:c r="S12" s="109"/>
       <x:c r="T12" s="68"/>
       <x:c r="U12" s="68"/>
       <x:c r="V12" s="77"/>
@@ -3948,16 +3942,16 @@
     </x:row>
     <x:row r="13" spans="1:78" ht="21" customHeight="1">
       <x:c r="A13" s="6"/>
-      <x:c r="B13" s="111"/>
+      <x:c r="B13" s="138"/>
       <x:c r="C13" s="41"/>
-      <x:c r="D13" s="107"/>
-      <x:c r="E13" s="107"/>
-      <x:c r="F13" s="107"/>
+      <x:c r="D13" s="133"/>
+      <x:c r="E13" s="133"/>
+      <x:c r="F13" s="133"/>
       <x:c r="G13" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H13" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I13" s="79"/>
       <x:c r="J13" s="69"/>
@@ -3969,10 +3963,10 @@
       <x:c r="P13" s="80"/>
       <x:c r="Q13" s="69"/>
       <x:c r="R13" s="69"/>
-      <x:c r="S13" s="132"/>
-      <x:c r="T13" s="132"/>
-      <x:c r="U13" s="132"/>
-      <x:c r="V13" s="137"/>
+      <x:c r="S13" s="107"/>
+      <x:c r="T13" s="107"/>
+      <x:c r="U13" s="69"/>
+      <x:c r="V13" s="66"/>
       <x:c r="W13" s="69"/>
       <x:c r="X13" s="69"/>
       <x:c r="Y13" s="69"/>
@@ -4032,16 +4026,16 @@
     </x:row>
     <x:row r="14" spans="1:131" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A14" s="6"/>
-      <x:c r="B14" s="115"/>
+      <x:c r="B14" s="141"/>
       <x:c r="C14" s="41"/>
-      <x:c r="D14" s="106"/>
-      <x:c r="E14" s="106"/>
-      <x:c r="F14" s="106"/>
+      <x:c r="D14" s="132"/>
+      <x:c r="E14" s="132"/>
+      <x:c r="F14" s="132"/>
       <x:c r="G14" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H14" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="79"/>
       <x:c r="J14" s="69"/>
@@ -4053,10 +4047,10 @@
       <x:c r="P14" s="80"/>
       <x:c r="Q14" s="69"/>
       <x:c r="R14" s="69"/>
-      <x:c r="S14" s="132"/>
-      <x:c r="T14" s="132"/>
-      <x:c r="U14" s="132"/>
-      <x:c r="V14" s="137"/>
+      <x:c r="S14" s="69"/>
+      <x:c r="T14" s="69"/>
+      <x:c r="U14" s="107"/>
+      <x:c r="V14" s="112"/>
       <x:c r="W14" s="69"/>
       <x:c r="X14" s="69"/>
       <x:c r="Y14" s="69"/>
@@ -4134,16 +4128,16 @@
     </x:row>
     <x:row r="15" spans="1:78" ht="21" customHeight="1">
       <x:c r="A15" s="6"/>
-      <x:c r="B15" s="111"/>
+      <x:c r="B15" s="138"/>
       <x:c r="C15" s="41"/>
-      <x:c r="D15" s="107"/>
-      <x:c r="E15" s="107"/>
-      <x:c r="F15" s="107"/>
+      <x:c r="D15" s="133"/>
+      <x:c r="E15" s="133"/>
+      <x:c r="F15" s="133"/>
       <x:c r="G15" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H15" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I15" s="79"/>
       <x:c r="J15" s="69"/>
@@ -4160,10 +4154,10 @@
       <x:c r="U15" s="69"/>
       <x:c r="V15" s="66"/>
       <x:c r="W15" s="69"/>
-      <x:c r="X15" s="132"/>
-      <x:c r="Y15" s="132"/>
-      <x:c r="Z15" s="132"/>
-      <x:c r="AA15" s="132"/>
+      <x:c r="X15" s="107"/>
+      <x:c r="Y15" s="148"/>
+      <x:c r="Z15" s="148"/>
+      <x:c r="AA15" s="148"/>
       <x:c r="AB15" s="69"/>
       <x:c r="AC15" s="66"/>
       <x:c r="AD15" s="69"/>
@@ -4178,7 +4172,7 @@
       <x:c r="AM15" s="69"/>
       <x:c r="AN15" s="69"/>
       <x:c r="AO15" s="69" t="s">
-        <x:v>42</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="AP15" s="69"/>
       <x:c r="AQ15" s="66"/>
@@ -4220,16 +4214,16 @@
     </x:row>
     <x:row r="16" spans="1:78" ht="21" customHeight="1">
       <x:c r="A16" s="6"/>
-      <x:c r="B16" s="111"/>
+      <x:c r="B16" s="138"/>
       <x:c r="C16" s="41"/>
-      <x:c r="D16" s="107"/>
-      <x:c r="E16" s="107"/>
-      <x:c r="F16" s="107"/>
+      <x:c r="D16" s="133"/>
+      <x:c r="E16" s="133"/>
+      <x:c r="F16" s="133"/>
       <x:c r="G16" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H16" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I16" s="79"/>
       <x:c r="J16" s="69"/>
@@ -4246,10 +4240,10 @@
       <x:c r="U16" s="69"/>
       <x:c r="V16" s="66"/>
       <x:c r="W16" s="69"/>
-      <x:c r="X16" s="132"/>
-      <x:c r="Y16" s="132"/>
-      <x:c r="Z16" s="132"/>
-      <x:c r="AA16" s="132"/>
+      <x:c r="X16" s="148"/>
+      <x:c r="Y16" s="107"/>
+      <x:c r="Z16" s="107"/>
+      <x:c r="AA16" s="148"/>
       <x:c r="AB16" s="69"/>
       <x:c r="AC16" s="66"/>
       <x:c r="AD16" s="69"/>
@@ -4304,16 +4298,16 @@
     </x:row>
     <x:row r="17" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A17" s="6"/>
-      <x:c r="B17" s="115"/>
+      <x:c r="B17" s="141"/>
       <x:c r="C17" s="41"/>
-      <x:c r="D17" s="106"/>
-      <x:c r="E17" s="106"/>
-      <x:c r="F17" s="106"/>
+      <x:c r="D17" s="132"/>
+      <x:c r="E17" s="132"/>
+      <x:c r="F17" s="132"/>
       <x:c r="G17" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H17" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I17" s="81"/>
       <x:c r="J17" s="69"/>
@@ -4330,11 +4324,11 @@
       <x:c r="U17" s="69"/>
       <x:c r="V17" s="66"/>
       <x:c r="W17" s="69"/>
-      <x:c r="X17" s="132"/>
-      <x:c r="Y17" s="132"/>
-      <x:c r="Z17" s="132"/>
-      <x:c r="AA17" s="132"/>
-      <x:c r="AB17" s="69"/>
+      <x:c r="X17" s="148"/>
+      <x:c r="Y17" s="69"/>
+      <x:c r="Z17" s="69"/>
+      <x:c r="AA17" s="107"/>
+      <x:c r="AB17" s="107"/>
       <x:c r="AC17" s="66"/>
       <x:c r="AD17" s="69"/>
       <x:c r="AE17" s="69"/>
@@ -4405,16 +4399,16 @@
     </x:row>
     <x:row r="18" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A18" s="6"/>
-      <x:c r="B18" s="115"/>
+      <x:c r="B18" s="141"/>
       <x:c r="C18" s="41"/>
-      <x:c r="D18" s="106"/>
-      <x:c r="E18" s="106"/>
-      <x:c r="F18" s="106"/>
+      <x:c r="D18" s="132"/>
+      <x:c r="E18" s="132"/>
+      <x:c r="F18" s="132"/>
       <x:c r="G18" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H18" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I18" s="81"/>
       <x:c r="J18" s="69"/>
@@ -4431,12 +4425,12 @@
       <x:c r="U18" s="69"/>
       <x:c r="V18" s="66"/>
       <x:c r="W18" s="69"/>
-      <x:c r="X18" s="132"/>
-      <x:c r="Y18" s="132"/>
-      <x:c r="Z18" s="132"/>
-      <x:c r="AA18" s="132"/>
+      <x:c r="X18" s="69"/>
+      <x:c r="Y18" s="69"/>
+      <x:c r="Z18" s="69"/>
+      <x:c r="AA18" s="69"/>
       <x:c r="AB18" s="69"/>
-      <x:c r="AC18" s="66"/>
+      <x:c r="AC18" s="112"/>
       <x:c r="AD18" s="69"/>
       <x:c r="AE18" s="69"/>
       <x:c r="AF18" s="69"/>
@@ -4506,16 +4500,16 @@
     </x:row>
     <x:row r="19" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A19" s="6"/>
-      <x:c r="B19" s="115"/>
+      <x:c r="B19" s="141"/>
       <x:c r="C19" s="41"/>
-      <x:c r="D19" s="106"/>
-      <x:c r="E19" s="106"/>
-      <x:c r="F19" s="106"/>
+      <x:c r="D19" s="132"/>
+      <x:c r="E19" s="132"/>
+      <x:c r="F19" s="132"/>
       <x:c r="G19" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H19" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I19" s="81"/>
       <x:c r="J19" s="69"/>
@@ -4532,12 +4526,12 @@
       <x:c r="U19" s="69"/>
       <x:c r="V19" s="66"/>
       <x:c r="W19" s="69"/>
-      <x:c r="X19" s="132"/>
-      <x:c r="Y19" s="132"/>
-      <x:c r="Z19" s="132"/>
-      <x:c r="AA19" s="132"/>
+      <x:c r="X19" s="69"/>
+      <x:c r="Y19" s="69"/>
+      <x:c r="Z19" s="69"/>
+      <x:c r="AA19" s="69"/>
       <x:c r="AB19" s="69"/>
-      <x:c r="AC19" s="66"/>
+      <x:c r="AC19" s="112"/>
       <x:c r="AD19" s="69"/>
       <x:c r="AE19" s="69"/>
       <x:c r="AF19" s="69"/>
@@ -4608,16 +4602,16 @@
     </x:row>
     <x:row r="20" spans="1:78" ht="21" customHeight="1">
       <x:c r="A20" s="6"/>
-      <x:c r="B20" s="111"/>
+      <x:c r="B20" s="138"/>
       <x:c r="C20" s="41"/>
-      <x:c r="D20" s="107"/>
-      <x:c r="E20" s="107"/>
-      <x:c r="F20" s="107"/>
+      <x:c r="D20" s="133"/>
+      <x:c r="E20" s="133"/>
+      <x:c r="F20" s="133"/>
       <x:c r="G20" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H20" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I20" s="81"/>
       <x:c r="J20" s="69"/>
@@ -4629,10 +4623,10 @@
       <x:c r="P20" s="80"/>
       <x:c r="Q20" s="69"/>
       <x:c r="R20" s="69"/>
-      <x:c r="S20" s="132"/>
-      <x:c r="T20" s="132"/>
-      <x:c r="U20" s="132"/>
-      <x:c r="V20" s="137"/>
+      <x:c r="S20" s="107"/>
+      <x:c r="T20" s="107"/>
+      <x:c r="U20" s="107"/>
+      <x:c r="V20" s="112"/>
       <x:c r="W20" s="69"/>
       <x:c r="X20" s="69"/>
       <x:c r="Y20" s="69"/>
@@ -4692,16 +4686,16 @@
     </x:row>
     <x:row r="21" spans="1:79" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A21" s="6"/>
-      <x:c r="B21" s="115"/>
+      <x:c r="B21" s="141"/>
       <x:c r="C21" s="41"/>
-      <x:c r="D21" s="106"/>
-      <x:c r="E21" s="106"/>
-      <x:c r="F21" s="106"/>
+      <x:c r="D21" s="132"/>
+      <x:c r="E21" s="132"/>
+      <x:c r="F21" s="132"/>
       <x:c r="G21" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H21" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I21" s="81"/>
       <x:c r="J21" s="69"/>
@@ -4718,10 +4712,10 @@
       <x:c r="U21" s="69"/>
       <x:c r="V21" s="66"/>
       <x:c r="W21" s="81"/>
-      <x:c r="X21" s="132"/>
-      <x:c r="Y21" s="132"/>
-      <x:c r="Z21" s="132"/>
-      <x:c r="AA21" s="132"/>
+      <x:c r="X21" s="107"/>
+      <x:c r="Y21" s="107"/>
+      <x:c r="Z21" s="69"/>
+      <x:c r="AA21" s="69"/>
       <x:c r="AB21" s="69"/>
       <x:c r="AC21" s="66"/>
       <x:c r="AD21" s="81"/>
@@ -4777,16 +4771,16 @@
     </x:row>
     <x:row r="22" spans="1:78" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A22" s="6"/>
-      <x:c r="B22" s="115"/>
+      <x:c r="B22" s="141"/>
       <x:c r="C22" s="41"/>
-      <x:c r="D22" s="106"/>
-      <x:c r="E22" s="106"/>
-      <x:c r="F22" s="106"/>
+      <x:c r="D22" s="132"/>
+      <x:c r="E22" s="132"/>
+      <x:c r="F22" s="132"/>
       <x:c r="G22" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H22" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I22" s="81"/>
       <x:c r="J22" s="69"/>
@@ -4803,10 +4797,10 @@
       <x:c r="U22" s="69"/>
       <x:c r="V22" s="66"/>
       <x:c r="W22" s="69"/>
-      <x:c r="X22" s="132"/>
-      <x:c r="Y22" s="132"/>
-      <x:c r="Z22" s="132"/>
-      <x:c r="AA22" s="132"/>
+      <x:c r="X22" s="107"/>
+      <x:c r="Y22" s="107"/>
+      <x:c r="Z22" s="69"/>
+      <x:c r="AA22" s="69"/>
       <x:c r="AB22" s="69"/>
       <x:c r="AC22" s="66"/>
       <x:c r="AD22" s="69"/>
@@ -4861,16 +4855,16 @@
     </x:row>
     <x:row r="23" spans="1:78" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A23" s="6"/>
-      <x:c r="B23" s="115"/>
+      <x:c r="B23" s="141"/>
       <x:c r="C23" s="41"/>
-      <x:c r="D23" s="106"/>
-      <x:c r="E23" s="106"/>
-      <x:c r="F23" s="106"/>
+      <x:c r="D23" s="132"/>
+      <x:c r="E23" s="132"/>
+      <x:c r="F23" s="132"/>
       <x:c r="G23" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H23" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I23" s="81"/>
       <x:c r="J23" s="69"/>
@@ -4887,10 +4881,10 @@
       <x:c r="U23" s="69"/>
       <x:c r="V23" s="66"/>
       <x:c r="W23" s="69"/>
-      <x:c r="X23" s="132"/>
-      <x:c r="Y23" s="132"/>
-      <x:c r="Z23" s="132"/>
-      <x:c r="AA23" s="132"/>
+      <x:c r="X23" s="69"/>
+      <x:c r="Y23" s="69"/>
+      <x:c r="Z23" s="107"/>
+      <x:c r="AA23" s="107"/>
       <x:c r="AB23" s="69"/>
       <x:c r="AC23" s="66"/>
       <x:c r="AD23" s="69"/>
@@ -4945,16 +4939,16 @@
     </x:row>
     <x:row r="24" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A24" s="6"/>
-      <x:c r="B24" s="115"/>
+      <x:c r="B24" s="141"/>
       <x:c r="C24" s="41"/>
-      <x:c r="D24" s="106"/>
-      <x:c r="E24" s="106"/>
-      <x:c r="F24" s="106"/>
+      <x:c r="D24" s="132"/>
+      <x:c r="E24" s="132"/>
+      <x:c r="F24" s="132"/>
       <x:c r="G24" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H24" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I24" s="81"/>
       <x:c r="J24" s="69"/>
@@ -4971,10 +4965,10 @@
       <x:c r="U24" s="69"/>
       <x:c r="V24" s="66"/>
       <x:c r="W24" s="69"/>
-      <x:c r="X24" s="132"/>
-      <x:c r="Y24" s="132"/>
-      <x:c r="Z24" s="132"/>
-      <x:c r="AA24" s="132"/>
+      <x:c r="X24" s="107"/>
+      <x:c r="Y24" s="107"/>
+      <x:c r="Z24" s="69"/>
+      <x:c r="AA24" s="69"/>
       <x:c r="AB24" s="69"/>
       <x:c r="AC24" s="66"/>
       <x:c r="AD24" s="69"/>
@@ -5046,16 +5040,16 @@
     </x:row>
     <x:row r="25" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A25" s="6"/>
-      <x:c r="B25" s="115"/>
+      <x:c r="B25" s="141"/>
       <x:c r="C25" s="41"/>
-      <x:c r="D25" s="106"/>
-      <x:c r="E25" s="106"/>
-      <x:c r="F25" s="106"/>
+      <x:c r="D25" s="132"/>
+      <x:c r="E25" s="132"/>
+      <x:c r="F25" s="132"/>
       <x:c r="G25" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H25" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="81"/>
       <x:c r="J25" s="69"/>
@@ -5072,10 +5066,10 @@
       <x:c r="U25" s="69"/>
       <x:c r="V25" s="66"/>
       <x:c r="W25" s="69"/>
-      <x:c r="X25" s="132"/>
-      <x:c r="Y25" s="132"/>
-      <x:c r="Z25" s="132"/>
-      <x:c r="AA25" s="132"/>
+      <x:c r="X25" s="69"/>
+      <x:c r="Y25" s="69"/>
+      <x:c r="Z25" s="107"/>
+      <x:c r="AA25" s="107"/>
       <x:c r="AB25" s="69"/>
       <x:c r="AC25" s="66"/>
       <x:c r="AD25" s="69"/>
@@ -5148,16 +5142,16 @@
     </x:row>
     <x:row r="26" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A26" s="6"/>
-      <x:c r="B26" s="115"/>
+      <x:c r="B26" s="141"/>
       <x:c r="C26" s="41"/>
-      <x:c r="D26" s="106"/>
-      <x:c r="E26" s="106"/>
-      <x:c r="F26" s="106"/>
+      <x:c r="D26" s="132"/>
+      <x:c r="E26" s="132"/>
+      <x:c r="F26" s="132"/>
       <x:c r="G26" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H26" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I26" s="81"/>
       <x:c r="J26" s="69"/>
@@ -5174,12 +5168,12 @@
       <x:c r="U26" s="69"/>
       <x:c r="V26" s="66"/>
       <x:c r="W26" s="69"/>
-      <x:c r="X26" s="132"/>
-      <x:c r="Y26" s="132"/>
-      <x:c r="Z26" s="132"/>
-      <x:c r="AA26" s="132"/>
+      <x:c r="X26" s="69"/>
+      <x:c r="Y26" s="69"/>
+      <x:c r="Z26" s="69"/>
+      <x:c r="AA26" s="69"/>
       <x:c r="AB26" s="69"/>
-      <x:c r="AC26" s="66"/>
+      <x:c r="AC26" s="112"/>
       <x:c r="AD26" s="69"/>
       <x:c r="AE26" s="69"/>
       <x:c r="AF26" s="69"/>
@@ -5229,7 +5223,7 @@
       <x:c r="BX26" s="69"/>
       <x:c r="BY26" s="69"/>
       <x:c r="BZ26" s="66"/>
-      <x:c r="CA26" s="135"/>
+      <x:c r="CA26" s="110"/>
       <x:c r="CB26" s="5"/>
       <x:c r="CC26" s="5"/>
       <x:c r="CD26" s="5"/>
@@ -5250,16 +5244,16 @@
     </x:row>
     <x:row r="27" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A27" s="6"/>
-      <x:c r="B27" s="115"/>
+      <x:c r="B27" s="141"/>
       <x:c r="C27" s="41"/>
-      <x:c r="D27" s="106"/>
-      <x:c r="E27" s="106"/>
-      <x:c r="F27" s="106"/>
+      <x:c r="D27" s="132"/>
+      <x:c r="E27" s="132"/>
+      <x:c r="F27" s="132"/>
       <x:c r="G27" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H27" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I27" s="81"/>
       <x:c r="J27" s="69"/>
@@ -5280,8 +5274,8 @@
       <x:c r="Y27" s="69"/>
       <x:c r="Z27" s="69"/>
       <x:c r="AA27" s="69"/>
-      <x:c r="AB27" s="132"/>
-      <x:c r="AC27" s="137"/>
+      <x:c r="AB27" s="107"/>
+      <x:c r="AC27" s="112"/>
       <x:c r="AD27" s="81"/>
       <x:c r="AE27" s="69"/>
       <x:c r="AF27" s="69"/>
@@ -5331,7 +5325,7 @@
       <x:c r="BX27" s="69"/>
       <x:c r="BY27" s="69"/>
       <x:c r="BZ27" s="66"/>
-      <x:c r="CA27" s="135"/>
+      <x:c r="CA27" s="110"/>
       <x:c r="CB27" s="5"/>
       <x:c r="CC27" s="5"/>
       <x:c r="CD27" s="5"/>
@@ -5352,16 +5346,16 @@
     </x:row>
     <x:row r="28" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A28" s="6"/>
-      <x:c r="B28" s="115"/>
+      <x:c r="B28" s="141"/>
       <x:c r="C28" s="41"/>
-      <x:c r="D28" s="106"/>
-      <x:c r="E28" s="106"/>
-      <x:c r="F28" s="106"/>
+      <x:c r="D28" s="132"/>
+      <x:c r="E28" s="132"/>
+      <x:c r="F28" s="132"/>
       <x:c r="G28" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H28" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I28" s="81"/>
       <x:c r="J28" s="69"/>
@@ -5378,10 +5372,10 @@
       <x:c r="U28" s="69"/>
       <x:c r="V28" s="66"/>
       <x:c r="W28" s="69"/>
-      <x:c r="X28" s="132"/>
-      <x:c r="Y28" s="132"/>
-      <x:c r="Z28" s="132"/>
-      <x:c r="AA28" s="132"/>
+      <x:c r="X28" s="69"/>
+      <x:c r="Y28" s="69"/>
+      <x:c r="Z28" s="107"/>
+      <x:c r="AA28" s="107"/>
       <x:c r="AB28" s="69"/>
       <x:c r="AC28" s="66"/>
       <x:c r="AD28" s="69"/>
@@ -5433,7 +5427,7 @@
       <x:c r="BX28" s="69"/>
       <x:c r="BY28" s="69"/>
       <x:c r="BZ28" s="66"/>
-      <x:c r="CA28" s="135"/>
+      <x:c r="CA28" s="110"/>
       <x:c r="CB28" s="5"/>
       <x:c r="CC28" s="5"/>
       <x:c r="CD28" s="5"/>
@@ -5454,16 +5448,16 @@
     </x:row>
     <x:row r="29" spans="1:96" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A29" s="6"/>
-      <x:c r="B29" s="115"/>
+      <x:c r="B29" s="141"/>
       <x:c r="C29" s="41"/>
-      <x:c r="D29" s="106"/>
-      <x:c r="E29" s="106"/>
-      <x:c r="F29" s="106"/>
+      <x:c r="D29" s="132"/>
+      <x:c r="E29" s="132"/>
+      <x:c r="F29" s="132"/>
       <x:c r="G29" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H29" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I29" s="81"/>
       <x:c r="J29" s="69"/>
@@ -5487,17 +5481,17 @@
       <x:c r="AB29" s="69"/>
       <x:c r="AC29" s="66"/>
       <x:c r="AD29" s="69"/>
-      <x:c r="AE29" s="132"/>
-      <x:c r="AF29" s="132"/>
-      <x:c r="AG29" s="132"/>
-      <x:c r="AH29" s="132"/>
-      <x:c r="AI29" s="132"/>
-      <x:c r="AJ29" s="137"/>
+      <x:c r="AE29" s="107"/>
+      <x:c r="AF29" s="107"/>
+      <x:c r="AG29" s="107"/>
+      <x:c r="AH29" s="107"/>
+      <x:c r="AI29" s="107"/>
+      <x:c r="AJ29" s="112"/>
       <x:c r="AK29" s="69"/>
-      <x:c r="AL29" s="132"/>
-      <x:c r="AM29" s="132"/>
-      <x:c r="AN29" s="132"/>
-      <x:c r="AO29" s="132"/>
+      <x:c r="AL29" s="107"/>
+      <x:c r="AM29" s="107"/>
+      <x:c r="AN29" s="107"/>
+      <x:c r="AO29" s="107"/>
       <x:c r="AP29" s="69"/>
       <x:c r="AQ29" s="66"/>
       <x:c r="AR29" s="69"/>
@@ -5535,7 +5529,7 @@
       <x:c r="BX29" s="69"/>
       <x:c r="BY29" s="69"/>
       <x:c r="BZ29" s="66"/>
-      <x:c r="CA29" s="135"/>
+      <x:c r="CA29" s="110"/>
       <x:c r="CB29" s="5"/>
       <x:c r="CC29" s="5"/>
       <x:c r="CD29" s="5"/>
@@ -5556,16 +5550,16 @@
     </x:row>
     <x:row r="30" spans="1:78" ht="21" customHeight="1">
       <x:c r="A30" s="6"/>
-      <x:c r="B30" s="111"/>
+      <x:c r="B30" s="138"/>
       <x:c r="C30" s="42"/>
-      <x:c r="D30" s="108"/>
-      <x:c r="E30" s="108"/>
-      <x:c r="F30" s="108"/>
+      <x:c r="D30" s="134"/>
+      <x:c r="E30" s="134"/>
+      <x:c r="F30" s="134"/>
       <x:c r="G30" s="56" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H30" s="55" t="s">
-        <x:v>6</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I30" s="82"/>
       <x:c r="J30" s="83"/>
@@ -5589,17 +5583,17 @@
       <x:c r="AB30" s="83"/>
       <x:c r="AC30" s="84"/>
       <x:c r="AD30" s="83"/>
-      <x:c r="AE30" s="138"/>
-      <x:c r="AF30" s="138"/>
-      <x:c r="AG30" s="138"/>
-      <x:c r="AH30" s="138"/>
-      <x:c r="AI30" s="138"/>
-      <x:c r="AJ30" s="139"/>
+      <x:c r="AE30" s="113"/>
+      <x:c r="AF30" s="113"/>
+      <x:c r="AG30" s="113"/>
+      <x:c r="AH30" s="113"/>
+      <x:c r="AI30" s="113"/>
+      <x:c r="AJ30" s="114"/>
       <x:c r="AK30" s="83"/>
-      <x:c r="AL30" s="138"/>
-      <x:c r="AM30" s="138"/>
-      <x:c r="AN30" s="138"/>
-      <x:c r="AO30" s="138"/>
+      <x:c r="AL30" s="113"/>
+      <x:c r="AM30" s="113"/>
+      <x:c r="AN30" s="113"/>
+      <x:c r="AO30" s="113"/>
       <x:c r="AP30" s="83"/>
       <x:c r="AQ30" s="84"/>
       <x:c r="AR30" s="83"/>
@@ -5640,20 +5634,20 @@
     </x:row>
     <x:row r="31" spans="1:78" ht="21" customHeight="1">
       <x:c r="A31" s="6"/>
-      <x:c r="B31" s="116">
+      <x:c r="B31" s="142">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C31" s="59"/>
-      <x:c r="D31" s="109" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E31" s="107"/>
-      <x:c r="F31" s="107"/>
+      <x:c r="D31" s="135" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E31" s="133"/>
+      <x:c r="F31" s="133"/>
       <x:c r="G31" s="62" t="s">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I31" s="86"/>
       <x:c r="J31" s="69"/>
@@ -5688,8 +5682,8 @@
       <x:c r="AM31" s="69"/>
       <x:c r="AN31" s="69"/>
       <x:c r="AO31" s="69"/>
-      <x:c r="AP31" s="144"/>
-      <x:c r="AQ31" s="145"/>
+      <x:c r="AP31" s="119"/>
+      <x:c r="AQ31" s="120"/>
       <x:c r="AR31" s="69"/>
       <x:c r="AS31" s="69"/>
       <x:c r="AT31" s="69"/>
@@ -5728,16 +5722,16 @@
     </x:row>
     <x:row r="32" spans="1:131" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A32" s="6"/>
-      <x:c r="B32" s="116"/>
+      <x:c r="B32" s="142"/>
       <x:c r="C32" s="59"/>
-      <x:c r="D32" s="109"/>
-      <x:c r="E32" s="109"/>
-      <x:c r="F32" s="109"/>
+      <x:c r="D32" s="135"/>
+      <x:c r="E32" s="135"/>
+      <x:c r="F32" s="135"/>
       <x:c r="G32" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I32" s="86"/>
       <x:c r="J32" s="69"/>
@@ -5772,8 +5766,8 @@
       <x:c r="AM32" s="69"/>
       <x:c r="AN32" s="69"/>
       <x:c r="AO32" s="69"/>
-      <x:c r="AP32" s="144"/>
-      <x:c r="AQ32" s="145"/>
+      <x:c r="AP32" s="119"/>
+      <x:c r="AQ32" s="120"/>
       <x:c r="AR32" s="69"/>
       <x:c r="AS32" s="69"/>
       <x:c r="AT32" s="69"/>
@@ -5864,16 +5858,16 @@
     </x:row>
     <x:row r="33" spans="1:131" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A33" s="6"/>
-      <x:c r="B33" s="116"/>
+      <x:c r="B33" s="142"/>
       <x:c r="C33" s="59"/>
-      <x:c r="D33" s="109"/>
-      <x:c r="E33" s="109"/>
-      <x:c r="F33" s="109"/>
+      <x:c r="D33" s="135"/>
+      <x:c r="E33" s="135"/>
+      <x:c r="F33" s="135"/>
       <x:c r="G33" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I33" s="86"/>
       <x:c r="J33" s="69"/>
@@ -5908,8 +5902,8 @@
       <x:c r="AM33" s="69"/>
       <x:c r="AN33" s="69"/>
       <x:c r="AO33" s="69"/>
-      <x:c r="AP33" s="144"/>
-      <x:c r="AQ33" s="145"/>
+      <x:c r="AP33" s="119"/>
+      <x:c r="AQ33" s="120"/>
       <x:c r="AR33" s="69"/>
       <x:c r="AS33" s="69"/>
       <x:c r="AT33" s="69"/>
@@ -6000,16 +5994,16 @@
     </x:row>
     <x:row r="34" spans="1:131" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A34" s="6"/>
-      <x:c r="B34" s="116"/>
+      <x:c r="B34" s="142"/>
       <x:c r="C34" s="59"/>
-      <x:c r="D34" s="109"/>
-      <x:c r="E34" s="109"/>
-      <x:c r="F34" s="109"/>
+      <x:c r="D34" s="135"/>
+      <x:c r="E34" s="135"/>
+      <x:c r="F34" s="135"/>
       <x:c r="G34" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H34" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I34" s="86"/>
       <x:c r="J34" s="69"/>
@@ -6044,8 +6038,8 @@
       <x:c r="AM34" s="69"/>
       <x:c r="AN34" s="69"/>
       <x:c r="AO34" s="69"/>
-      <x:c r="AP34" s="144"/>
-      <x:c r="AQ34" s="145"/>
+      <x:c r="AP34" s="119"/>
+      <x:c r="AQ34" s="120"/>
       <x:c r="AR34" s="69"/>
       <x:c r="AS34" s="69"/>
       <x:c r="AT34" s="69"/>
@@ -6136,169 +6130,169 @@
     </x:row>
     <x:row r="35" spans="1:78" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A35" s="6"/>
-      <x:c r="B35" s="116"/>
+      <x:c r="B35" s="142"/>
       <x:c r="C35" s="60"/>
-      <x:c r="D35" s="110"/>
-      <x:c r="E35" s="110"/>
-      <x:c r="F35" s="110"/>
+      <x:c r="D35" s="136"/>
+      <x:c r="E35" s="136"/>
+      <x:c r="F35" s="136"/>
       <x:c r="G35" s="63" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H35" s="61" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I35" s="140"/>
-      <x:c r="J35" s="141"/>
-      <x:c r="K35" s="141"/>
-      <x:c r="L35" s="141"/>
-      <x:c r="M35" s="141"/>
-      <x:c r="N35" s="141"/>
-      <x:c r="O35" s="142"/>
-      <x:c r="P35" s="143"/>
-      <x:c r="Q35" s="141"/>
-      <x:c r="R35" s="141"/>
-      <x:c r="S35" s="141"/>
-      <x:c r="T35" s="141"/>
-      <x:c r="U35" s="141"/>
-      <x:c r="V35" s="142"/>
-      <x:c r="W35" s="141"/>
-      <x:c r="X35" s="141"/>
-      <x:c r="Y35" s="141"/>
-      <x:c r="Z35" s="141"/>
-      <x:c r="AA35" s="141"/>
-      <x:c r="AB35" s="141"/>
-      <x:c r="AC35" s="142"/>
-      <x:c r="AD35" s="141"/>
-      <x:c r="AE35" s="141"/>
-      <x:c r="AF35" s="141"/>
-      <x:c r="AG35" s="141"/>
-      <x:c r="AH35" s="141"/>
-      <x:c r="AI35" s="141"/>
-      <x:c r="AJ35" s="142"/>
-      <x:c r="AK35" s="141"/>
-      <x:c r="AL35" s="141"/>
-      <x:c r="AM35" s="141"/>
-      <x:c r="AN35" s="141"/>
-      <x:c r="AO35" s="141"/>
-      <x:c r="AP35" s="146"/>
-      <x:c r="AQ35" s="147"/>
-      <x:c r="AR35" s="141"/>
-      <x:c r="AS35" s="141"/>
-      <x:c r="AT35" s="141"/>
-      <x:c r="AU35" s="141"/>
-      <x:c r="AV35" s="141"/>
-      <x:c r="AW35" s="141"/>
-      <x:c r="AX35" s="142"/>
-      <x:c r="AY35" s="141"/>
-      <x:c r="AZ35" s="141"/>
-      <x:c r="BA35" s="141"/>
-      <x:c r="BB35" s="141"/>
-      <x:c r="BC35" s="141"/>
-      <x:c r="BD35" s="141"/>
-      <x:c r="BE35" s="142"/>
-      <x:c r="BF35" s="141"/>
-      <x:c r="BG35" s="141"/>
-      <x:c r="BH35" s="141"/>
-      <x:c r="BI35" s="141"/>
-      <x:c r="BJ35" s="141"/>
-      <x:c r="BK35" s="141"/>
-      <x:c r="BL35" s="142"/>
-      <x:c r="BM35" s="141"/>
-      <x:c r="BN35" s="141"/>
-      <x:c r="BO35" s="141"/>
-      <x:c r="BP35" s="141"/>
-      <x:c r="BQ35" s="141"/>
-      <x:c r="BR35" s="141"/>
-      <x:c r="BS35" s="142"/>
-      <x:c r="BT35" s="141"/>
-      <x:c r="BU35" s="141"/>
-      <x:c r="BV35" s="141"/>
-      <x:c r="BW35" s="141"/>
-      <x:c r="BX35" s="141"/>
-      <x:c r="BY35" s="141"/>
-      <x:c r="BZ35" s="142"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I35" s="115"/>
+      <x:c r="J35" s="116"/>
+      <x:c r="K35" s="116"/>
+      <x:c r="L35" s="116"/>
+      <x:c r="M35" s="116"/>
+      <x:c r="N35" s="116"/>
+      <x:c r="O35" s="117"/>
+      <x:c r="P35" s="118"/>
+      <x:c r="Q35" s="116"/>
+      <x:c r="R35" s="116"/>
+      <x:c r="S35" s="116"/>
+      <x:c r="T35" s="116"/>
+      <x:c r="U35" s="116"/>
+      <x:c r="V35" s="117"/>
+      <x:c r="W35" s="116"/>
+      <x:c r="X35" s="116"/>
+      <x:c r="Y35" s="116"/>
+      <x:c r="Z35" s="116"/>
+      <x:c r="AA35" s="116"/>
+      <x:c r="AB35" s="116"/>
+      <x:c r="AC35" s="117"/>
+      <x:c r="AD35" s="116"/>
+      <x:c r="AE35" s="116"/>
+      <x:c r="AF35" s="116"/>
+      <x:c r="AG35" s="116"/>
+      <x:c r="AH35" s="116"/>
+      <x:c r="AI35" s="116"/>
+      <x:c r="AJ35" s="117"/>
+      <x:c r="AK35" s="116"/>
+      <x:c r="AL35" s="116"/>
+      <x:c r="AM35" s="116"/>
+      <x:c r="AN35" s="116"/>
+      <x:c r="AO35" s="116"/>
+      <x:c r="AP35" s="121"/>
+      <x:c r="AQ35" s="122"/>
+      <x:c r="AR35" s="116"/>
+      <x:c r="AS35" s="116"/>
+      <x:c r="AT35" s="116"/>
+      <x:c r="AU35" s="116"/>
+      <x:c r="AV35" s="116"/>
+      <x:c r="AW35" s="116"/>
+      <x:c r="AX35" s="117"/>
+      <x:c r="AY35" s="116"/>
+      <x:c r="AZ35" s="116"/>
+      <x:c r="BA35" s="116"/>
+      <x:c r="BB35" s="116"/>
+      <x:c r="BC35" s="116"/>
+      <x:c r="BD35" s="116"/>
+      <x:c r="BE35" s="117"/>
+      <x:c r="BF35" s="116"/>
+      <x:c r="BG35" s="116"/>
+      <x:c r="BH35" s="116"/>
+      <x:c r="BI35" s="116"/>
+      <x:c r="BJ35" s="116"/>
+      <x:c r="BK35" s="116"/>
+      <x:c r="BL35" s="117"/>
+      <x:c r="BM35" s="116"/>
+      <x:c r="BN35" s="116"/>
+      <x:c r="BO35" s="116"/>
+      <x:c r="BP35" s="116"/>
+      <x:c r="BQ35" s="116"/>
+      <x:c r="BR35" s="116"/>
+      <x:c r="BS35" s="117"/>
+      <x:c r="BT35" s="116"/>
+      <x:c r="BU35" s="116"/>
+      <x:c r="BV35" s="116"/>
+      <x:c r="BW35" s="116"/>
+      <x:c r="BX35" s="116"/>
+      <x:c r="BY35" s="116"/>
+      <x:c r="BZ35" s="117"/>
     </x:row>
     <x:row r="36" spans="1:78" ht="21" customHeight="1">
       <x:c r="A36" s="6"/>
-      <x:c r="B36" s="114">
+      <x:c r="B36" s="140">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C36" s="41"/>
-      <x:c r="D36" s="112" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E36" s="111"/>
-      <x:c r="F36" s="111"/>
+      <x:c r="D36" s="137" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E36" s="138"/>
+      <x:c r="F36" s="138"/>
       <x:c r="G36" s="95" t="s">
-        <x:v>45</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H36" s="96" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I36" s="122"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I36" s="97"/>
       <x:c r="J36" s="68"/>
       <x:c r="K36" s="68"/>
       <x:c r="L36" s="68"/>
       <x:c r="M36" s="68"/>
       <x:c r="N36" s="68"/>
       <x:c r="O36" s="77"/>
-      <x:c r="P36" s="123"/>
+      <x:c r="P36" s="98"/>
       <x:c r="Q36" s="68"/>
       <x:c r="R36" s="68"/>
       <x:c r="S36" s="68"/>
       <x:c r="T36" s="68"/>
       <x:c r="U36" s="68"/>
       <x:c r="V36" s="77"/>
-      <x:c r="W36" s="124"/>
+      <x:c r="W36" s="99"/>
       <x:c r="X36" s="68"/>
       <x:c r="Y36" s="68"/>
       <x:c r="Z36" s="68"/>
       <x:c r="AA36" s="68"/>
       <x:c r="AB36" s="68"/>
       <x:c r="AC36" s="77"/>
-      <x:c r="AD36" s="124"/>
+      <x:c r="AD36" s="99"/>
       <x:c r="AE36" s="68"/>
       <x:c r="AF36" s="68"/>
       <x:c r="AG36" s="68"/>
       <x:c r="AH36" s="68"/>
       <x:c r="AI36" s="68"/>
       <x:c r="AJ36" s="77"/>
-      <x:c r="AK36" s="124"/>
+      <x:c r="AK36" s="99"/>
       <x:c r="AL36" s="68"/>
       <x:c r="AM36" s="68"/>
       <x:c r="AN36" s="68"/>
       <x:c r="AO36" s="68"/>
       <x:c r="AP36" s="68"/>
       <x:c r="AQ36" s="77"/>
-      <x:c r="AR36" s="124"/>
+      <x:c r="AR36" s="99"/>
       <x:c r="AS36" s="68"/>
       <x:c r="AT36" s="68"/>
       <x:c r="AU36" s="68"/>
       <x:c r="AV36" s="68"/>
       <x:c r="AW36" s="68"/>
       <x:c r="AX36" s="77"/>
-      <x:c r="AY36" s="124"/>
+      <x:c r="AY36" s="99"/>
       <x:c r="AZ36" s="68"/>
       <x:c r="BA36" s="68"/>
       <x:c r="BB36" s="68"/>
       <x:c r="BC36" s="68"/>
       <x:c r="BD36" s="68"/>
       <x:c r="BE36" s="77"/>
-      <x:c r="BF36" s="124"/>
+      <x:c r="BF36" s="99"/>
       <x:c r="BG36" s="68"/>
       <x:c r="BH36" s="68"/>
       <x:c r="BI36" s="68"/>
       <x:c r="BJ36" s="68"/>
       <x:c r="BK36" s="68"/>
       <x:c r="BL36" s="77"/>
-      <x:c r="BM36" s="124"/>
+      <x:c r="BM36" s="99"/>
       <x:c r="BN36" s="68"/>
       <x:c r="BO36" s="68"/>
       <x:c r="BP36" s="68"/>
       <x:c r="BQ36" s="68"/>
       <x:c r="BR36" s="68"/>
       <x:c r="BS36" s="77"/>
-      <x:c r="BT36" s="124"/>
+      <x:c r="BT36" s="99"/>
       <x:c r="BU36" s="68"/>
       <x:c r="BV36" s="68"/>
       <x:c r="BW36" s="68"/>
@@ -6308,16 +6302,16 @@
     </x:row>
     <x:row r="37" spans="1:131" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A37" s="6"/>
-      <x:c r="B37" s="114"/>
+      <x:c r="B37" s="140"/>
       <x:c r="C37" s="41"/>
-      <x:c r="D37" s="112"/>
-      <x:c r="E37" s="112"/>
-      <x:c r="F37" s="112"/>
+      <x:c r="D37" s="137"/>
+      <x:c r="E37" s="137"/>
+      <x:c r="F37" s="137"/>
       <x:c r="G37" s="62" t="s">
-        <x:v>62</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H37" s="67" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I37" s="86"/>
       <x:c r="J37" s="69"/>
@@ -6325,70 +6319,70 @@
       <x:c r="L37" s="69"/>
       <x:c r="M37" s="69"/>
       <x:c r="N37" s="69"/>
-      <x:c r="O37" s="131"/>
+      <x:c r="O37" s="106"/>
       <x:c r="P37" s="80"/>
       <x:c r="Q37" s="69"/>
       <x:c r="R37" s="69"/>
       <x:c r="S37" s="69"/>
       <x:c r="T37" s="69"/>
       <x:c r="U37" s="69"/>
-      <x:c r="V37" s="131"/>
+      <x:c r="V37" s="106"/>
       <x:c r="W37" s="69"/>
       <x:c r="X37" s="69"/>
       <x:c r="Y37" s="69"/>
       <x:c r="Z37" s="69"/>
       <x:c r="AA37" s="69"/>
       <x:c r="AB37" s="69"/>
-      <x:c r="AC37" s="131"/>
+      <x:c r="AC37" s="106"/>
       <x:c r="AD37" s="69"/>
       <x:c r="AE37" s="69"/>
       <x:c r="AF37" s="69"/>
       <x:c r="AG37" s="69"/>
       <x:c r="AH37" s="69"/>
       <x:c r="AI37" s="69"/>
-      <x:c r="AJ37" s="131"/>
+      <x:c r="AJ37" s="106"/>
       <x:c r="AK37" s="69"/>
       <x:c r="AL37" s="69"/>
       <x:c r="AM37" s="69"/>
       <x:c r="AN37" s="69"/>
       <x:c r="AO37" s="69"/>
       <x:c r="AP37" s="69"/>
-      <x:c r="AQ37" s="131"/>
+      <x:c r="AQ37" s="106"/>
       <x:c r="AR37" s="69"/>
       <x:c r="AS37" s="69"/>
       <x:c r="AT37" s="69"/>
       <x:c r="AU37" s="69"/>
       <x:c r="AV37" s="69"/>
       <x:c r="AW37" s="69"/>
-      <x:c r="AX37" s="131"/>
+      <x:c r="AX37" s="106"/>
       <x:c r="AY37" s="69"/>
       <x:c r="AZ37" s="69"/>
       <x:c r="BA37" s="69"/>
       <x:c r="BB37" s="69"/>
       <x:c r="BC37" s="69"/>
       <x:c r="BD37" s="69"/>
-      <x:c r="BE37" s="131"/>
+      <x:c r="BE37" s="106"/>
       <x:c r="BF37" s="69"/>
       <x:c r="BG37" s="69"/>
       <x:c r="BH37" s="69"/>
       <x:c r="BI37" s="69"/>
       <x:c r="BJ37" s="69"/>
       <x:c r="BK37" s="69"/>
-      <x:c r="BL37" s="131"/>
+      <x:c r="BL37" s="106"/>
       <x:c r="BM37" s="69"/>
       <x:c r="BN37" s="69"/>
       <x:c r="BO37" s="69"/>
       <x:c r="BP37" s="69"/>
       <x:c r="BQ37" s="69"/>
       <x:c r="BR37" s="69"/>
-      <x:c r="BS37" s="131"/>
+      <x:c r="BS37" s="106"/>
       <x:c r="BT37" s="69"/>
       <x:c r="BU37" s="69"/>
       <x:c r="BV37" s="69"/>
       <x:c r="BW37" s="69"/>
       <x:c r="BX37" s="69"/>
       <x:c r="BY37" s="69"/>
-      <x:c r="BZ37" s="131"/>
+      <x:c r="BZ37" s="106"/>
       <x:c r="CB37" s="4"/>
       <x:c r="CC37" s="4"/>
       <x:c r="CD37" s="4"/>
@@ -6444,16 +6438,16 @@
     </x:row>
     <x:row r="38" spans="1:131" s="5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A38" s="6"/>
-      <x:c r="B38" s="114"/>
+      <x:c r="B38" s="140"/>
       <x:c r="C38" s="41"/>
-      <x:c r="D38" s="112"/>
-      <x:c r="E38" s="112"/>
-      <x:c r="F38" s="112"/>
+      <x:c r="D38" s="137"/>
+      <x:c r="E38" s="137"/>
+      <x:c r="F38" s="137"/>
       <x:c r="G38" s="62" t="s">
-        <x:v>63</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H38" s="67" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I38" s="86"/>
       <x:c r="J38" s="69"/>
@@ -6461,8 +6455,8 @@
       <x:c r="L38" s="69"/>
       <x:c r="M38" s="69"/>
       <x:c r="N38" s="69"/>
-      <x:c r="O38" s="131" t="s">
-        <x:v>42</x:v>
+      <x:c r="O38" s="106" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P38" s="80"/>
       <x:c r="Q38" s="69"/>
@@ -6470,63 +6464,63 @@
       <x:c r="S38" s="69"/>
       <x:c r="T38" s="69"/>
       <x:c r="U38" s="69"/>
-      <x:c r="V38" s="131"/>
+      <x:c r="V38" s="106"/>
       <x:c r="W38" s="69"/>
       <x:c r="X38" s="69"/>
       <x:c r="Y38" s="69"/>
       <x:c r="Z38" s="69"/>
       <x:c r="AA38" s="69"/>
       <x:c r="AB38" s="69"/>
-      <x:c r="AC38" s="131"/>
+      <x:c r="AC38" s="106"/>
       <x:c r="AD38" s="69"/>
       <x:c r="AE38" s="69"/>
       <x:c r="AF38" s="69"/>
       <x:c r="AG38" s="69"/>
       <x:c r="AH38" s="69"/>
       <x:c r="AI38" s="69"/>
-      <x:c r="AJ38" s="131"/>
+      <x:c r="AJ38" s="106"/>
       <x:c r="AK38" s="69"/>
       <x:c r="AL38" s="69"/>
       <x:c r="AM38" s="69"/>
       <x:c r="AN38" s="69"/>
       <x:c r="AO38" s="69"/>
       <x:c r="AP38" s="69"/>
-      <x:c r="AQ38" s="131"/>
+      <x:c r="AQ38" s="106"/>
       <x:c r="AR38" s="69"/>
       <x:c r="AS38" s="69"/>
       <x:c r="AT38" s="69"/>
       <x:c r="AU38" s="69"/>
       <x:c r="AV38" s="69"/>
       <x:c r="AW38" s="69"/>
-      <x:c r="AX38" s="131"/>
+      <x:c r="AX38" s="106"/>
       <x:c r="AY38" s="69"/>
       <x:c r="AZ38" s="69"/>
       <x:c r="BA38" s="69"/>
       <x:c r="BB38" s="69"/>
       <x:c r="BC38" s="69"/>
       <x:c r="BD38" s="69"/>
-      <x:c r="BE38" s="131"/>
+      <x:c r="BE38" s="106"/>
       <x:c r="BF38" s="69"/>
       <x:c r="BG38" s="69"/>
       <x:c r="BH38" s="69"/>
       <x:c r="BI38" s="69"/>
       <x:c r="BJ38" s="69"/>
       <x:c r="BK38" s="69"/>
-      <x:c r="BL38" s="131"/>
+      <x:c r="BL38" s="106"/>
       <x:c r="BM38" s="69"/>
       <x:c r="BN38" s="69"/>
       <x:c r="BO38" s="69"/>
       <x:c r="BP38" s="69"/>
       <x:c r="BQ38" s="69"/>
       <x:c r="BR38" s="69"/>
-      <x:c r="BS38" s="131"/>
+      <x:c r="BS38" s="106"/>
       <x:c r="BT38" s="69"/>
       <x:c r="BU38" s="69"/>
       <x:c r="BV38" s="69"/>
       <x:c r="BW38" s="69"/>
       <x:c r="BX38" s="69"/>
       <x:c r="BY38" s="69"/>
-      <x:c r="BZ38" s="131"/>
+      <x:c r="BZ38" s="106"/>
       <x:c r="CB38" s="4"/>
       <x:c r="CC38" s="4"/>
       <x:c r="CD38" s="4"/>
@@ -6582,16 +6576,16 @@
     </x:row>
     <x:row r="39" spans="1:78" ht="21" customHeight="1">
       <x:c r="A39" s="6"/>
-      <x:c r="B39" s="111"/>
+      <x:c r="B39" s="138"/>
       <x:c r="C39" s="41"/>
-      <x:c r="D39" s="111"/>
-      <x:c r="E39" s="111"/>
-      <x:c r="F39" s="111"/>
+      <x:c r="D39" s="138"/>
+      <x:c r="E39" s="138"/>
+      <x:c r="F39" s="138"/>
       <x:c r="G39" s="62" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H39" s="67" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I39" s="86"/>
       <x:c r="J39" s="69"/>
@@ -6629,33 +6623,33 @@
       <x:c r="AP39" s="69"/>
       <x:c r="AQ39" s="66"/>
       <x:c r="AR39" s="69"/>
-      <x:c r="AS39" s="136"/>
-      <x:c r="AT39" s="136"/>
-      <x:c r="AU39" s="136"/>
-      <x:c r="AV39" s="136"/>
-      <x:c r="AW39" s="136"/>
-      <x:c r="AX39" s="131"/>
+      <x:c r="AS39" s="111"/>
+      <x:c r="AT39" s="111"/>
+      <x:c r="AU39" s="111"/>
+      <x:c r="AV39" s="111"/>
+      <x:c r="AW39" s="111"/>
+      <x:c r="AX39" s="106"/>
       <x:c r="AY39" s="69"/>
-      <x:c r="AZ39" s="136"/>
-      <x:c r="BA39" s="136"/>
-      <x:c r="BB39" s="136"/>
-      <x:c r="BC39" s="136"/>
-      <x:c r="BD39" s="136"/>
-      <x:c r="BE39" s="131"/>
+      <x:c r="AZ39" s="111"/>
+      <x:c r="BA39" s="111"/>
+      <x:c r="BB39" s="111"/>
+      <x:c r="BC39" s="111"/>
+      <x:c r="BD39" s="111"/>
+      <x:c r="BE39" s="106"/>
       <x:c r="BF39" s="69"/>
-      <x:c r="BG39" s="136"/>
-      <x:c r="BH39" s="136"/>
-      <x:c r="BI39" s="136"/>
-      <x:c r="BJ39" s="136"/>
-      <x:c r="BK39" s="136"/>
-      <x:c r="BL39" s="131"/>
+      <x:c r="BG39" s="111"/>
+      <x:c r="BH39" s="111"/>
+      <x:c r="BI39" s="111"/>
+      <x:c r="BJ39" s="111"/>
+      <x:c r="BK39" s="111"/>
+      <x:c r="BL39" s="106"/>
       <x:c r="BM39" s="69"/>
-      <x:c r="BN39" s="136"/>
-      <x:c r="BO39" s="136"/>
-      <x:c r="BP39" s="136"/>
-      <x:c r="BQ39" s="136"/>
-      <x:c r="BR39" s="136"/>
-      <x:c r="BS39" s="131"/>
+      <x:c r="BN39" s="111"/>
+      <x:c r="BO39" s="111"/>
+      <x:c r="BP39" s="111"/>
+      <x:c r="BQ39" s="111"/>
+      <x:c r="BR39" s="111"/>
+      <x:c r="BS39" s="106"/>
       <x:c r="BT39" s="69"/>
       <x:c r="BU39" s="69"/>
       <x:c r="BV39" s="69"/>
@@ -6666,16 +6660,16 @@
     </x:row>
     <x:row r="40" spans="1:78" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A40" s="6"/>
-      <x:c r="B40" s="114"/>
+      <x:c r="B40" s="140"/>
       <x:c r="C40" s="41"/>
-      <x:c r="D40" s="112"/>
-      <x:c r="E40" s="112"/>
-      <x:c r="F40" s="112"/>
+      <x:c r="D40" s="137"/>
+      <x:c r="E40" s="137"/>
+      <x:c r="F40" s="137"/>
       <x:c r="G40" s="62" t="s">
-        <x:v>4</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H40" s="67" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I40" s="86"/>
       <x:c r="J40" s="69"/>
@@ -6713,33 +6707,33 @@
       <x:c r="AP40" s="69"/>
       <x:c r="AQ40" s="66"/>
       <x:c r="AR40" s="69"/>
-      <x:c r="AS40" s="136"/>
-      <x:c r="AT40" s="136"/>
-      <x:c r="AU40" s="136"/>
-      <x:c r="AV40" s="136"/>
-      <x:c r="AW40" s="136"/>
-      <x:c r="AX40" s="131"/>
+      <x:c r="AS40" s="111"/>
+      <x:c r="AT40" s="111"/>
+      <x:c r="AU40" s="111"/>
+      <x:c r="AV40" s="111"/>
+      <x:c r="AW40" s="111"/>
+      <x:c r="AX40" s="106"/>
       <x:c r="AY40" s="69"/>
-      <x:c r="AZ40" s="136"/>
-      <x:c r="BA40" s="136"/>
-      <x:c r="BB40" s="136"/>
-      <x:c r="BC40" s="136"/>
-      <x:c r="BD40" s="136"/>
-      <x:c r="BE40" s="131"/>
+      <x:c r="AZ40" s="111"/>
+      <x:c r="BA40" s="111"/>
+      <x:c r="BB40" s="111"/>
+      <x:c r="BC40" s="111"/>
+      <x:c r="BD40" s="111"/>
+      <x:c r="BE40" s="106"/>
       <x:c r="BF40" s="69"/>
-      <x:c r="BG40" s="136"/>
-      <x:c r="BH40" s="136"/>
-      <x:c r="BI40" s="136"/>
-      <x:c r="BJ40" s="136"/>
-      <x:c r="BK40" s="136"/>
-      <x:c r="BL40" s="131"/>
+      <x:c r="BG40" s="111"/>
+      <x:c r="BH40" s="111"/>
+      <x:c r="BI40" s="111"/>
+      <x:c r="BJ40" s="111"/>
+      <x:c r="BK40" s="111"/>
+      <x:c r="BL40" s="106"/>
       <x:c r="BM40" s="69"/>
-      <x:c r="BN40" s="136"/>
-      <x:c r="BO40" s="136"/>
-      <x:c r="BP40" s="136"/>
-      <x:c r="BQ40" s="136"/>
-      <x:c r="BR40" s="136"/>
-      <x:c r="BS40" s="131"/>
+      <x:c r="BN40" s="111"/>
+      <x:c r="BO40" s="111"/>
+      <x:c r="BP40" s="111"/>
+      <x:c r="BQ40" s="111"/>
+      <x:c r="BR40" s="111"/>
+      <x:c r="BS40" s="106"/>
       <x:c r="BT40" s="69"/>
       <x:c r="BU40" s="69"/>
       <x:c r="BV40" s="69"/>
@@ -6750,16 +6744,16 @@
     </x:row>
     <x:row r="41" spans="1:78" s="4" customFormat="1" ht="21" customHeight="1">
       <x:c r="A41" s="6"/>
-      <x:c r="B41" s="114"/>
+      <x:c r="B41" s="140"/>
       <x:c r="C41" s="41"/>
-      <x:c r="D41" s="112"/>
-      <x:c r="E41" s="112"/>
-      <x:c r="F41" s="112"/>
+      <x:c r="D41" s="137"/>
+      <x:c r="E41" s="137"/>
+      <x:c r="F41" s="137"/>
       <x:c r="G41" s="62" t="s">
-        <x:v>44</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H41" s="67" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I41" s="86"/>
       <x:c r="J41" s="69"/>
@@ -6825,25 +6819,25 @@
       <x:c r="BR41" s="69"/>
       <x:c r="BS41" s="66"/>
       <x:c r="BT41" s="69"/>
-      <x:c r="BU41" s="136"/>
-      <x:c r="BV41" s="136"/>
-      <x:c r="BW41" s="136"/>
-      <x:c r="BX41" s="136"/>
-      <x:c r="BY41" s="136"/>
-      <x:c r="BZ41" s="131"/>
+      <x:c r="BU41" s="111"/>
+      <x:c r="BV41" s="111"/>
+      <x:c r="BW41" s="111"/>
+      <x:c r="BX41" s="111"/>
+      <x:c r="BY41" s="111"/>
+      <x:c r="BZ41" s="106"/>
     </x:row>
     <x:row r="42" spans="1:78" ht="21" customHeight="1">
       <x:c r="A42" s="6"/>
-      <x:c r="B42" s="111"/>
+      <x:c r="B42" s="138"/>
       <x:c r="C42" s="43"/>
-      <x:c r="D42" s="113"/>
-      <x:c r="E42" s="113"/>
-      <x:c r="F42" s="113"/>
+      <x:c r="D42" s="139"/>
+      <x:c r="E42" s="139"/>
+      <x:c r="F42" s="139"/>
       <x:c r="G42" s="93" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H42" s="94" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I42" s="87"/>
       <x:c r="J42" s="88"/>
@@ -6914,7 +6908,7 @@
       <x:c r="BW42" s="88"/>
       <x:c r="BX42" s="88"/>
       <x:c r="BY42" s="88"/>
-      <x:c r="BZ42" s="133"/>
+      <x:c r="BZ42" s="108"/>
     </x:row>
     <x:row r="43" spans="1:66" ht="21" customHeight="1">
       <x:c r="A43" s="6"/>
